--- a/movieJoa 스케줄러.xlsx
+++ b/movieJoa 스케줄러.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김갈매\Desktop\파이널 문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\갈매\OneDrive\바탕 화면\파이널 문서자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6CB075-13EB-461D-AE91-A7F479FF8566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="107">
   <si>
     <t>31일</t>
   </si>
@@ -523,7 +522,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -2312,6 +2311,288 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2345,33 +2626,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2381,266 +2638,8 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2921,27 +2920,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AF47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X37" sqref="X37"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AK15" sqref="AK15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="22.8984375" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.8984375" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="6.296875" customWidth="1"/>
-    <col min="10" max="10" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.25" customWidth="1"/>
+    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="18" thickBot="1"/>
-    <row r="2" spans="2:30" ht="19.8" thickBot="1">
+    <row r="1" spans="2:30" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:30" ht="18" thickBot="1">
       <c r="B2" s="35"/>
       <c r="C2" s="36">
         <v>44838</v>
@@ -3028,56 +3027,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:30" ht="19.8" customHeight="1" thickBot="1">
+    <row r="3" spans="2:30" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="B3" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="112" t="s">
+      <c r="D3" s="157"/>
+      <c r="E3" s="162" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="113"/>
-      <c r="G3" s="115" t="s">
+      <c r="F3" s="163"/>
+      <c r="G3" s="171" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="112" t="s">
+      <c r="H3" s="171"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="114" t="s">
+      <c r="K3" s="168" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="92" t="s">
+      <c r="L3" s="186" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="92"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="121" t="s">
+      <c r="M3" s="186"/>
+      <c r="N3" s="187"/>
+      <c r="O3" s="192" t="s">
         <v>54</v>
       </c>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="103" t="s">
+      <c r="P3" s="187"/>
+      <c r="Q3" s="189" t="s">
         <v>66</v>
       </c>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="104"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
-      <c r="Z3" s="105"/>
-      <c r="AA3" s="91" t="s">
+      <c r="R3" s="190"/>
+      <c r="S3" s="190"/>
+      <c r="T3" s="190"/>
+      <c r="U3" s="190"/>
+      <c r="V3" s="190"/>
+      <c r="W3" s="190"/>
+      <c r="X3" s="190"/>
+      <c r="Y3" s="190"/>
+      <c r="Z3" s="191"/>
+      <c r="AA3" s="185" t="s">
         <v>80</v>
       </c>
-      <c r="AB3" s="92"/>
-      <c r="AC3" s="93"/>
-      <c r="AD3" s="100" t="s">
+      <c r="AB3" s="186"/>
+      <c r="AC3" s="187"/>
+      <c r="AD3" s="188" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3085,20 +3084,20 @@
       <c r="B4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="96"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="169"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="165"/>
+      <c r="O4" s="164"/>
+      <c r="P4" s="165"/>
       <c r="Q4" s="34"/>
       <c r="R4" s="33"/>
       <c r="S4" s="33"/>
@@ -3109,29 +3108,29 @@
       <c r="X4" s="33"/>
       <c r="Y4" s="33"/>
       <c r="Z4" s="33"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="96"/>
-      <c r="AD4" s="101"/>
+      <c r="AA4" s="164"/>
+      <c r="AB4" s="159"/>
+      <c r="AC4" s="165"/>
+      <c r="AD4" s="169"/>
     </row>
     <row r="5" spans="2:30" ht="21.6" customHeight="1" thickBot="1">
       <c r="B5" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="96"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="173"/>
+      <c r="I5" s="174"/>
+      <c r="J5" s="164"/>
+      <c r="K5" s="169"/>
+      <c r="L5" s="159"/>
+      <c r="M5" s="159"/>
+      <c r="N5" s="165"/>
+      <c r="O5" s="164"/>
+      <c r="P5" s="165"/>
       <c r="Q5" s="34"/>
       <c r="R5" s="33"/>
       <c r="S5" s="33"/>
@@ -3142,29 +3141,29 @@
       <c r="X5" s="33"/>
       <c r="Y5" s="33"/>
       <c r="Z5" s="33"/>
-      <c r="AA5" s="94"/>
-      <c r="AB5" s="95"/>
-      <c r="AC5" s="96"/>
-      <c r="AD5" s="101"/>
+      <c r="AA5" s="164"/>
+      <c r="AB5" s="159"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="169"/>
     </row>
     <row r="6" spans="2:30" ht="21.6" customHeight="1" thickBot="1">
       <c r="B6" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="96"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="173"/>
+      <c r="H6" s="173"/>
+      <c r="I6" s="174"/>
+      <c r="J6" s="164"/>
+      <c r="K6" s="169"/>
+      <c r="L6" s="159"/>
+      <c r="M6" s="159"/>
+      <c r="N6" s="165"/>
+      <c r="O6" s="164"/>
+      <c r="P6" s="165"/>
       <c r="Q6" s="34"/>
       <c r="R6" s="33"/>
       <c r="S6" s="33"/>
@@ -3175,29 +3174,29 @@
       <c r="X6" s="33"/>
       <c r="Y6" s="33"/>
       <c r="Z6" s="33"/>
-      <c r="AA6" s="94"/>
-      <c r="AB6" s="95"/>
-      <c r="AC6" s="96"/>
-      <c r="AD6" s="101"/>
+      <c r="AA6" s="164"/>
+      <c r="AB6" s="159"/>
+      <c r="AC6" s="165"/>
+      <c r="AD6" s="169"/>
     </row>
-    <row r="7" spans="2:30" ht="19.8" thickBot="1">
+    <row r="7" spans="2:30" ht="18" thickBot="1">
       <c r="B7" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="96"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="174"/>
+      <c r="J7" s="164"/>
+      <c r="K7" s="169"/>
+      <c r="L7" s="159"/>
+      <c r="M7" s="159"/>
+      <c r="N7" s="165"/>
+      <c r="O7" s="164"/>
+      <c r="P7" s="165"/>
       <c r="Q7" s="34"/>
       <c r="R7" s="33"/>
       <c r="S7" s="33"/>
@@ -3208,29 +3207,29 @@
       <c r="X7" s="33"/>
       <c r="Y7" s="33"/>
       <c r="Z7" s="33"/>
-      <c r="AA7" s="94"/>
-      <c r="AB7" s="95"/>
-      <c r="AC7" s="96"/>
-      <c r="AD7" s="101"/>
+      <c r="AA7" s="164"/>
+      <c r="AB7" s="159"/>
+      <c r="AC7" s="165"/>
+      <c r="AD7" s="169"/>
     </row>
-    <row r="8" spans="2:30" ht="19.8" thickBot="1">
+    <row r="8" spans="2:30" ht="18" thickBot="1">
       <c r="B8" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="96"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="173"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="159"/>
+      <c r="M8" s="159"/>
+      <c r="N8" s="165"/>
+      <c r="O8" s="164"/>
+      <c r="P8" s="165"/>
       <c r="Q8" s="34"/>
       <c r="R8" s="33"/>
       <c r="S8" s="33"/>
@@ -3241,29 +3240,29 @@
       <c r="X8" s="33"/>
       <c r="Y8" s="33"/>
       <c r="Z8" s="33"/>
-      <c r="AA8" s="94"/>
-      <c r="AB8" s="95"/>
-      <c r="AC8" s="96"/>
-      <c r="AD8" s="101"/>
+      <c r="AA8" s="164"/>
+      <c r="AB8" s="159"/>
+      <c r="AC8" s="165"/>
+      <c r="AD8" s="169"/>
     </row>
-    <row r="9" spans="2:30" ht="19.8" thickBot="1">
+    <row r="9" spans="2:30" ht="18" thickBot="1">
       <c r="B9" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="111"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="99"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="175"/>
+      <c r="I9" s="176"/>
+      <c r="J9" s="166"/>
+      <c r="K9" s="170"/>
+      <c r="L9" s="161"/>
+      <c r="M9" s="161"/>
+      <c r="N9" s="167"/>
+      <c r="O9" s="166"/>
+      <c r="P9" s="167"/>
       <c r="Q9" s="49"/>
       <c r="R9" s="50"/>
       <c r="S9" s="50"/>
@@ -3274,10 +3273,10 @@
       <c r="X9" s="50"/>
       <c r="Y9" s="50"/>
       <c r="Z9" s="50"/>
-      <c r="AA9" s="97"/>
-      <c r="AB9" s="98"/>
-      <c r="AC9" s="99"/>
-      <c r="AD9" s="102"/>
+      <c r="AA9" s="166"/>
+      <c r="AB9" s="161"/>
+      <c r="AC9" s="167"/>
+      <c r="AD9" s="170"/>
     </row>
     <row r="11" spans="2:30">
       <c r="B11" s="16" t="s">
@@ -3343,8 +3342,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="2:32" ht="18" thickBot="1"/>
-    <row r="20" spans="2:32" ht="18" thickBot="1">
+    <row r="19" spans="2:32" ht="17.25" thickBot="1"/>
+    <row r="20" spans="2:32" ht="17.25" thickBot="1">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3377,7 +3376,7 @@
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
     </row>
-    <row r="21" spans="2:32" ht="19.8" thickBot="1">
+    <row r="21" spans="2:32" ht="18" thickBot="1">
       <c r="B21" s="7" t="s">
         <v>30</v>
       </c>
@@ -3473,7 +3472,7 @@
       </c>
     </row>
     <row r="22" spans="2:32" ht="18" customHeight="1" thickBot="1">
-      <c r="B22" s="122" t="s">
+      <c r="B22" s="110" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="53" t="s">
@@ -3482,10 +3481,10 @@
       <c r="D22" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="106" t="s">
+      <c r="E22" s="154" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="107"/>
+      <c r="F22" s="155"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="65"/>
@@ -3514,7 +3513,7 @@
       <c r="AF22" s="11"/>
     </row>
     <row r="23" spans="2:32" ht="18" customHeight="1" thickBot="1">
-      <c r="B23" s="123"/>
+      <c r="B23" s="112"/>
       <c r="C23" s="53" t="s">
         <v>49</v>
       </c>
@@ -3523,10 +3522,10 @@
       </c>
       <c r="E23" s="57"/>
       <c r="F23" s="59"/>
-      <c r="G23" s="124" t="s">
+      <c r="G23" s="138" t="s">
         <v>70</v>
       </c>
-      <c r="H23" s="124"/>
+      <c r="H23" s="138"/>
       <c r="I23" s="66"/>
       <c r="J23" s="67"/>
       <c r="K23" s="68"/>
@@ -3552,9 +3551,9 @@
       <c r="AE23" s="11"/>
       <c r="AF23" s="11"/>
     </row>
-    <row r="24" spans="2:32" ht="31.8" customHeight="1" thickBot="1">
-      <c r="B24" s="123"/>
-      <c r="C24" s="122" t="s">
+    <row r="24" spans="2:32" ht="31.9" customHeight="1" thickBot="1">
+      <c r="B24" s="112"/>
+      <c r="C24" s="110" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="79" t="s">
@@ -3564,11 +3563,11 @@
       <c r="F24" s="11"/>
       <c r="G24" s="12"/>
       <c r="H24" s="60"/>
-      <c r="I24" s="125" t="s">
+      <c r="I24" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="J24" s="126"/>
-      <c r="K24" s="127"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="116"/>
       <c r="L24" s="69"/>
       <c r="M24" s="73"/>
       <c r="N24" s="11"/>
@@ -3592,8 +3591,8 @@
       <c r="AF24" s="11"/>
     </row>
     <row r="25" spans="2:32" ht="33" customHeight="1" thickBot="1">
-      <c r="B25" s="123"/>
-      <c r="C25" s="123"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="112"/>
       <c r="D25" s="80" t="s">
         <v>75</v>
       </c>
@@ -3601,11 +3600,11 @@
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
       <c r="H25" s="61"/>
-      <c r="I25" s="188" t="s">
+      <c r="I25" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="J25" s="128"/>
-      <c r="K25" s="129"/>
+      <c r="J25" s="140"/>
+      <c r="K25" s="141"/>
       <c r="L25" s="31"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
@@ -3628,9 +3627,9 @@
       <c r="AE25" s="11"/>
       <c r="AF25" s="11"/>
     </row>
-    <row r="26" spans="2:32" ht="31.8" customHeight="1" thickBot="1">
-      <c r="B26" s="123"/>
-      <c r="C26" s="123"/>
+    <row r="26" spans="2:32" ht="31.9" customHeight="1" thickBot="1">
+      <c r="B26" s="112"/>
+      <c r="C26" s="112"/>
       <c r="D26" s="81" t="s">
         <v>77</v>
       </c>
@@ -3638,11 +3637,11 @@
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
       <c r="H26" s="62"/>
-      <c r="I26" s="130" t="s">
+      <c r="I26" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="J26" s="131"/>
-      <c r="K26" s="132"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="144"/>
       <c r="L26" s="70"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
@@ -3665,9 +3664,9 @@
       <c r="AE26" s="11"/>
       <c r="AF26" s="11"/>
     </row>
-    <row r="27" spans="2:32" ht="22.8" customHeight="1" thickBot="1">
-      <c r="B27" s="123"/>
-      <c r="C27" s="123"/>
+    <row r="27" spans="2:32" ht="22.9" customHeight="1" thickBot="1">
+      <c r="B27" s="112"/>
+      <c r="C27" s="112"/>
       <c r="D27" s="81" t="s">
         <v>76</v>
       </c>
@@ -3675,11 +3674,11 @@
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
       <c r="H27" s="72"/>
-      <c r="I27" s="183" t="s">
+      <c r="I27" s="145" t="s">
         <v>96</v>
       </c>
-      <c r="J27" s="133"/>
-      <c r="K27" s="134"/>
+      <c r="J27" s="146"/>
+      <c r="K27" s="147"/>
       <c r="L27" s="71"/>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
@@ -3702,9 +3701,9 @@
       <c r="AE27" s="11"/>
       <c r="AF27" s="11"/>
     </row>
-    <row r="28" spans="2:32" ht="22.8" customHeight="1" thickBot="1">
-      <c r="B28" s="123"/>
-      <c r="C28" s="123"/>
+    <row r="28" spans="2:32" ht="22.9" customHeight="1" thickBot="1">
+      <c r="B28" s="112"/>
+      <c r="C28" s="112"/>
       <c r="D28" s="81" t="s">
         <v>73</v>
       </c>
@@ -3712,11 +3711,11 @@
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
       <c r="H28" s="62"/>
-      <c r="I28" s="135" t="s">
+      <c r="I28" s="148" t="s">
         <v>67</v>
       </c>
-      <c r="J28" s="136"/>
-      <c r="K28" s="137"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="150"/>
       <c r="L28" s="69"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
@@ -3739,9 +3738,9 @@
       <c r="AE28" s="11"/>
       <c r="AF28" s="11"/>
     </row>
-    <row r="29" spans="2:32" ht="22.8" customHeight="1" thickBot="1">
-      <c r="B29" s="123"/>
-      <c r="C29" s="123"/>
+    <row r="29" spans="2:32" ht="22.9" customHeight="1" thickBot="1">
+      <c r="B29" s="112"/>
+      <c r="C29" s="112"/>
       <c r="D29" s="80" t="s">
         <v>72</v>
       </c>
@@ -3749,11 +3748,11 @@
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
       <c r="H29" s="62"/>
-      <c r="I29" s="138" t="s">
+      <c r="I29" s="151" t="s">
         <v>67</v>
       </c>
-      <c r="J29" s="139"/>
-      <c r="K29" s="140"/>
+      <c r="J29" s="152"/>
+      <c r="K29" s="153"/>
       <c r="L29" s="69"/>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
@@ -3777,8 +3776,8 @@
       <c r="AF29" s="11"/>
     </row>
     <row r="30" spans="2:32" ht="21.6" customHeight="1" thickBot="1">
-      <c r="B30" s="123"/>
-      <c r="C30" s="123"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="112"/>
       <c r="D30" s="81" t="s">
         <v>74</v>
       </c>
@@ -3786,11 +3785,11 @@
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
       <c r="H30" s="62"/>
-      <c r="I30" s="83" t="s">
+      <c r="I30" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="J30" s="84"/>
-      <c r="K30" s="85"/>
+      <c r="J30" s="178"/>
+      <c r="K30" s="179"/>
       <c r="L30" s="69"/>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
@@ -3813,8 +3812,8 @@
       <c r="AE30" s="11"/>
       <c r="AF30" s="11"/>
     </row>
-    <row r="31" spans="2:32" ht="18" thickBot="1">
-      <c r="B31" s="123"/>
+    <row r="31" spans="2:32" ht="17.25" thickBot="1">
+      <c r="B31" s="112"/>
       <c r="C31" s="53" t="s">
         <v>35</v>
       </c>
@@ -3830,11 +3829,11 @@
       <c r="K31" s="11"/>
       <c r="L31" s="58"/>
       <c r="M31" s="11"/>
-      <c r="N31" s="86" t="s">
+      <c r="N31" s="180" t="s">
         <v>78</v>
       </c>
-      <c r="O31" s="87"/>
-      <c r="P31" s="88"/>
+      <c r="O31" s="181"/>
+      <c r="P31" s="182"/>
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
@@ -3853,7 +3852,7 @@
       <c r="AF31" s="11"/>
     </row>
     <row r="32" spans="2:32" ht="18" customHeight="1" thickBot="1">
-      <c r="B32" s="123"/>
+      <c r="B32" s="112"/>
       <c r="C32" s="53" t="s">
         <v>53</v>
       </c>
@@ -3872,10 +3871,10 @@
       <c r="N32" s="75"/>
       <c r="O32" s="76"/>
       <c r="P32" s="77"/>
-      <c r="Q32" s="89" t="s">
+      <c r="Q32" s="183" t="s">
         <v>79</v>
       </c>
-      <c r="R32" s="90"/>
+      <c r="R32" s="184"/>
       <c r="S32" s="63"/>
       <c r="T32" s="63"/>
       <c r="U32" s="63"/>
@@ -3891,8 +3890,8 @@
       <c r="AE32" s="63"/>
       <c r="AF32" s="63"/>
     </row>
-    <row r="33" spans="2:32" ht="31.2" customHeight="1" thickBot="1">
-      <c r="B33" s="122" t="s">
+    <row r="33" spans="2:32" ht="31.15" customHeight="1" thickBot="1">
+      <c r="B33" s="110" t="s">
         <v>36</v>
       </c>
       <c r="C33" s="53" t="s">
@@ -3911,8 +3910,8 @@
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
-      <c r="M33" s="181"/>
-      <c r="N33" s="182"/>
+      <c r="M33" s="130"/>
+      <c r="N33" s="131"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
@@ -3933,32 +3932,32 @@
       <c r="AF33" s="11"/>
     </row>
     <row r="34" spans="2:32" ht="18" customHeight="1" thickBot="1">
-      <c r="B34" s="123"/>
-      <c r="C34" s="122" t="s">
+      <c r="B34" s="112"/>
+      <c r="C34" s="110" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="152" t="s">
+      <c r="D34" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="156" t="s">
+      <c r="E34" s="117" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="158"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="158"/>
-      <c r="I34" s="158"/>
-      <c r="J34" s="158"/>
-      <c r="K34" s="158"/>
-      <c r="L34" s="158"/>
-      <c r="M34" s="158"/>
-      <c r="N34" s="158"/>
-      <c r="O34" s="158"/>
-      <c r="P34" s="158"/>
-      <c r="Q34" s="158"/>
-      <c r="R34" s="158"/>
-      <c r="S34" s="158"/>
-      <c r="T34" s="158"/>
-      <c r="U34" s="159"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="118"/>
+      <c r="H34" s="118"/>
+      <c r="I34" s="118"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="118"/>
+      <c r="M34" s="118"/>
+      <c r="N34" s="118"/>
+      <c r="O34" s="118"/>
+      <c r="P34" s="118"/>
+      <c r="Q34" s="118"/>
+      <c r="R34" s="118"/>
+      <c r="S34" s="118"/>
+      <c r="T34" s="118"/>
+      <c r="U34" s="119"/>
       <c r="V34" s="11"/>
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
@@ -3971,31 +3970,31 @@
       <c r="AE34" s="11"/>
       <c r="AF34" s="11"/>
     </row>
-    <row r="35" spans="2:32" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B35" s="123"/>
-      <c r="C35" s="123"/>
-      <c r="D35" s="154" t="s">
+    <row r="35" spans="2:32" ht="14.45" customHeight="1" thickBot="1">
+      <c r="B35" s="112"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="166" t="s">
+      <c r="E35" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="F35" s="165"/>
-      <c r="G35" s="165"/>
-      <c r="H35" s="165"/>
-      <c r="I35" s="165"/>
-      <c r="J35" s="165"/>
-      <c r="K35" s="165"/>
-      <c r="L35" s="165"/>
-      <c r="M35" s="165"/>
-      <c r="N35" s="165"/>
-      <c r="O35" s="164"/>
+      <c r="F35" s="124"/>
+      <c r="G35" s="124"/>
+      <c r="H35" s="124"/>
+      <c r="I35" s="124"/>
+      <c r="J35" s="124"/>
+      <c r="K35" s="124"/>
+      <c r="L35" s="124"/>
+      <c r="M35" s="124"/>
+      <c r="N35" s="124"/>
+      <c r="O35" s="89"/>
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
-      <c r="R35" s="157"/>
-      <c r="S35" s="125"/>
-      <c r="T35" s="126"/>
-      <c r="U35" s="127"/>
+      <c r="R35" s="87"/>
+      <c r="S35" s="114"/>
+      <c r="T35" s="115"/>
+      <c r="U35" s="116"/>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
       <c r="X35" s="11"/>
@@ -4009,9 +4008,9 @@
       <c r="AF35" s="11"/>
     </row>
     <row r="36" spans="2:32" ht="18" customHeight="1" thickBot="1">
-      <c r="B36" s="123"/>
-      <c r="C36" s="123"/>
-      <c r="D36" s="154" t="s">
+      <c r="B36" s="112"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="85" t="s">
         <v>88</v>
       </c>
       <c r="E36" s="11"/>
@@ -4023,17 +4022,17 @@
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
-      <c r="N36" s="160"/>
-      <c r="O36" s="163" t="s">
+      <c r="N36" s="88"/>
+      <c r="O36" s="120" t="s">
         <v>89</v>
       </c>
-      <c r="P36" s="161"/>
-      <c r="Q36" s="161"/>
-      <c r="R36" s="161"/>
-      <c r="S36" s="161"/>
-      <c r="T36" s="161"/>
-      <c r="U36" s="161"/>
-      <c r="V36" s="162"/>
+      <c r="P36" s="121"/>
+      <c r="Q36" s="121"/>
+      <c r="R36" s="121"/>
+      <c r="S36" s="121"/>
+      <c r="T36" s="121"/>
+      <c r="U36" s="121"/>
+      <c r="V36" s="122"/>
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
@@ -4045,28 +4044,28 @@
       <c r="AE36" s="11"/>
       <c r="AF36" s="11"/>
     </row>
-    <row r="37" spans="2:32" ht="18" thickBot="1">
-      <c r="B37" s="123"/>
-      <c r="C37" s="123"/>
-      <c r="D37" s="154" t="s">
+    <row r="37" spans="2:32" ht="17.25" thickBot="1">
+      <c r="B37" s="112"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="168" t="s">
+      <c r="E37" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="F37" s="169"/>
-      <c r="G37" s="169"/>
-      <c r="H37" s="169"/>
-      <c r="I37" s="169"/>
-      <c r="J37" s="169"/>
-      <c r="K37" s="169"/>
-      <c r="L37" s="169"/>
-      <c r="M37" s="170"/>
+      <c r="F37" s="126"/>
+      <c r="G37" s="126"/>
+      <c r="H37" s="126"/>
+      <c r="I37" s="126"/>
+      <c r="J37" s="126"/>
+      <c r="K37" s="126"/>
+      <c r="L37" s="126"/>
+      <c r="M37" s="127"/>
       <c r="N37" s="12"/>
-      <c r="O37" s="141"/>
-      <c r="P37" s="142"/>
-      <c r="Q37" s="142"/>
-      <c r="R37" s="143"/>
+      <c r="O37" s="132"/>
+      <c r="P37" s="133"/>
+      <c r="Q37" s="133"/>
+      <c r="R37" s="134"/>
       <c r="S37" s="11"/>
       <c r="T37" s="11"/>
       <c r="U37" s="11"/>
@@ -4082,10 +4081,10 @@
       <c r="AE37" s="11"/>
       <c r="AF37" s="11"/>
     </row>
-    <row r="38" spans="2:32" ht="20.399999999999999" customHeight="1" thickBot="1">
-      <c r="B38" s="123"/>
-      <c r="C38" s="123"/>
-      <c r="D38" s="153" t="s">
+    <row r="38" spans="2:32" ht="20.45" customHeight="1" thickBot="1">
+      <c r="B38" s="112"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="84" t="s">
         <v>91</v>
       </c>
       <c r="E38" s="11"/>
@@ -4097,20 +4096,20 @@
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="173" t="s">
+      <c r="N38" s="128" t="s">
         <v>93</v>
       </c>
-      <c r="O38" s="174"/>
-      <c r="P38" s="174"/>
-      <c r="Q38" s="174"/>
-      <c r="R38" s="174"/>
-      <c r="S38" s="174"/>
-      <c r="T38" s="174"/>
-      <c r="U38" s="174"/>
-      <c r="V38" s="174"/>
-      <c r="W38" s="171"/>
-      <c r="X38" s="171"/>
-      <c r="Y38" s="172"/>
+      <c r="O38" s="129"/>
+      <c r="P38" s="129"/>
+      <c r="Q38" s="129"/>
+      <c r="R38" s="129"/>
+      <c r="S38" s="129"/>
+      <c r="T38" s="129"/>
+      <c r="U38" s="129"/>
+      <c r="V38" s="129"/>
+      <c r="W38" s="91"/>
+      <c r="X38" s="91"/>
+      <c r="Y38" s="92"/>
       <c r="Z38" s="10"/>
       <c r="AA38" s="10"/>
       <c r="AB38" s="11"/>
@@ -4119,35 +4118,35 @@
       <c r="AE38" s="11"/>
       <c r="AF38" s="11"/>
     </row>
-    <row r="39" spans="2:32" ht="18" thickBot="1">
-      <c r="B39" s="123"/>
-      <c r="C39" s="123"/>
-      <c r="D39" s="167" t="s">
+    <row r="39" spans="2:32" ht="17.25" thickBot="1">
+      <c r="B39" s="112"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="E39" s="184" t="s">
+      <c r="E39" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="185"/>
-      <c r="G39" s="185"/>
-      <c r="H39" s="185"/>
-      <c r="I39" s="185"/>
-      <c r="J39" s="185"/>
-      <c r="K39" s="185"/>
-      <c r="L39" s="185"/>
-      <c r="M39" s="185"/>
-      <c r="N39" s="185"/>
-      <c r="O39" s="185"/>
-      <c r="P39" s="185"/>
-      <c r="Q39" s="186"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="100"/>
+      <c r="K39" s="100"/>
+      <c r="L39" s="100"/>
+      <c r="M39" s="100"/>
+      <c r="N39" s="100"/>
+      <c r="O39" s="100"/>
+      <c r="P39" s="100"/>
+      <c r="Q39" s="101"/>
       <c r="R39" s="11"/>
       <c r="S39" s="11"/>
       <c r="T39" s="11"/>
       <c r="U39" s="12"/>
-      <c r="V39" s="145"/>
-      <c r="W39" s="147"/>
-      <c r="X39" s="147"/>
-      <c r="Y39" s="146"/>
+      <c r="V39" s="135"/>
+      <c r="W39" s="136"/>
+      <c r="X39" s="136"/>
+      <c r="Y39" s="137"/>
       <c r="Z39" s="10"/>
       <c r="AA39" s="11"/>
       <c r="AB39" s="11"/>
@@ -4156,10 +4155,10 @@
       <c r="AE39" s="11"/>
       <c r="AF39" s="11"/>
     </row>
-    <row r="40" spans="2:32" ht="18" thickBot="1">
-      <c r="B40" s="123"/>
-      <c r="C40" s="123"/>
-      <c r="D40" s="154" t="s">
+    <row r="40" spans="2:32" ht="17.25" thickBot="1">
+      <c r="B40" s="112"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="85" t="s">
         <v>99</v>
       </c>
       <c r="E40" s="11"/>
@@ -4175,13 +4174,13 @@
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
-      <c r="R40" s="187" t="s">
+      <c r="R40" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="S40" s="185"/>
-      <c r="T40" s="185"/>
-      <c r="U40" s="185"/>
-      <c r="V40" s="186"/>
+      <c r="S40" s="100"/>
+      <c r="T40" s="100"/>
+      <c r="U40" s="100"/>
+      <c r="V40" s="101"/>
       <c r="W40" s="11"/>
       <c r="X40" s="11"/>
       <c r="Y40" s="11"/>
@@ -4193,22 +4192,22 @@
       <c r="AE40" s="11"/>
       <c r="AF40" s="11"/>
     </row>
-    <row r="41" spans="2:32" ht="18" thickBot="1">
-      <c r="B41" s="123"/>
-      <c r="C41" s="123"/>
-      <c r="D41" s="155" t="s">
+    <row r="41" spans="2:32" ht="17.25" thickBot="1">
+      <c r="B41" s="112"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="E41" s="189" t="s">
+      <c r="E41" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="F41" s="190"/>
-      <c r="G41" s="190"/>
-      <c r="H41" s="190"/>
-      <c r="I41" s="190"/>
-      <c r="J41" s="190"/>
-      <c r="K41" s="190"/>
-      <c r="L41" s="191"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="105"/>
       <c r="M41" s="11"/>
       <c r="N41" s="12"/>
       <c r="O41" s="11"/>
@@ -4230,10 +4229,10 @@
       <c r="AE41" s="11"/>
       <c r="AF41" s="11"/>
     </row>
-    <row r="42" spans="2:32" ht="18" thickBot="1">
-      <c r="B42" s="123"/>
-      <c r="C42" s="123"/>
-      <c r="D42" s="154" t="s">
+    <row r="42" spans="2:32" ht="17.25" thickBot="1">
+      <c r="B42" s="112"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="85" t="s">
         <v>103</v>
       </c>
       <c r="E42" s="11"/>
@@ -4244,10 +4243,10 @@
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
-      <c r="M42" s="192" t="s">
+      <c r="M42" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="N42" s="191"/>
+      <c r="N42" s="105"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="12"/>
@@ -4267,10 +4266,10 @@
       <c r="AE42" s="11"/>
       <c r="AF42" s="11"/>
     </row>
-    <row r="43" spans="2:32" ht="18" thickBot="1">
-      <c r="B43" s="123"/>
-      <c r="C43" s="123"/>
-      <c r="D43" s="154" t="s">
+    <row r="43" spans="2:32" ht="17.25" thickBot="1">
+      <c r="B43" s="112"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="85" t="s">
         <v>104</v>
       </c>
       <c r="E43" s="11"/>
@@ -4283,16 +4282,16 @@
       <c r="L43" s="11"/>
       <c r="M43" s="11"/>
       <c r="N43" s="11"/>
-      <c r="O43" s="192" t="s">
+      <c r="O43" s="106" t="s">
         <v>106</v>
       </c>
-      <c r="P43" s="190"/>
-      <c r="Q43" s="190"/>
-      <c r="R43" s="190"/>
-      <c r="S43" s="190"/>
-      <c r="T43" s="190"/>
-      <c r="U43" s="190"/>
-      <c r="V43" s="191"/>
+      <c r="P43" s="104"/>
+      <c r="Q43" s="104"/>
+      <c r="R43" s="104"/>
+      <c r="S43" s="104"/>
+      <c r="T43" s="104"/>
+      <c r="U43" s="104"/>
+      <c r="V43" s="105"/>
       <c r="W43" s="10"/>
       <c r="X43" s="10"/>
       <c r="Y43" s="11"/>
@@ -4304,9 +4303,9 @@
       <c r="AE43" s="11"/>
       <c r="AF43" s="11"/>
     </row>
-    <row r="44" spans="2:32" ht="18" thickBot="1">
-      <c r="B44" s="123"/>
-      <c r="C44" s="144"/>
+    <row r="44" spans="2:32" ht="17.25" thickBot="1">
+      <c r="B44" s="112"/>
+      <c r="C44" s="113"/>
       <c r="D44" s="78"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
@@ -4325,10 +4324,10 @@
       <c r="S44" s="12"/>
       <c r="T44" s="12"/>
       <c r="U44" s="12"/>
-      <c r="V44" s="148"/>
-      <c r="W44" s="149"/>
-      <c r="X44" s="149"/>
-      <c r="Y44" s="150"/>
+      <c r="V44" s="107"/>
+      <c r="W44" s="108"/>
+      <c r="X44" s="108"/>
+      <c r="Y44" s="109"/>
       <c r="Z44" s="11"/>
       <c r="AA44" s="11"/>
       <c r="AB44" s="11"/>
@@ -4338,7 +4337,7 @@
       <c r="AF44" s="11"/>
     </row>
     <row r="45" spans="2:32" ht="18" customHeight="1" thickBot="1">
-      <c r="B45" s="144"/>
+      <c r="B45" s="113"/>
       <c r="C45" s="53" t="s">
         <v>83</v>
       </c>
@@ -4365,19 +4364,19 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
-      <c r="Y45" s="175"/>
-      <c r="Z45" s="179"/>
-      <c r="AA45" s="179"/>
-      <c r="AB45" s="180"/>
-      <c r="AC45" s="178" t="s">
+      <c r="Y45" s="93"/>
+      <c r="Z45" s="94"/>
+      <c r="AA45" s="94"/>
+      <c r="AB45" s="95"/>
+      <c r="AC45" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="AD45" s="176"/>
-      <c r="AE45" s="177"/>
+      <c r="AD45" s="97"/>
+      <c r="AE45" s="98"/>
       <c r="AF45" s="1"/>
     </row>
-    <row r="46" spans="2:32" ht="18" thickBot="1">
-      <c r="B46" s="122" t="s">
+    <row r="46" spans="2:32" ht="17.25" thickBot="1">
+      <c r="B46" s="110" t="s">
         <v>38</v>
       </c>
       <c r="C46" s="53" t="s">
@@ -4410,13 +4409,15 @@
       <c r="Z46" s="12"/>
       <c r="AA46" s="12"/>
       <c r="AB46" s="12"/>
-      <c r="AC46" s="12"/>
-      <c r="AD46" s="12"/>
-      <c r="AE46" s="12"/>
+      <c r="AC46" s="114" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD46" s="115"/>
+      <c r="AE46" s="116"/>
       <c r="AF46" s="27"/>
     </row>
-    <row r="47" spans="2:32" ht="18" thickBot="1">
-      <c r="B47" s="151"/>
+    <row r="47" spans="2:32" ht="17.25" thickBot="1">
+      <c r="B47" s="111"/>
       <c r="C47" s="55" t="s">
         <v>41</v>
       </c>
@@ -4450,17 +4451,36 @@
       <c r="AC47" s="11"/>
       <c r="AD47" s="11"/>
       <c r="AE47" s="11"/>
-      <c r="AF47" s="11"/>
+      <c r="AF47" s="82" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="AC45:AE45"/>
-    <mergeCell ref="E39:Q39"/>
-    <mergeCell ref="R40:V40"/>
-    <mergeCell ref="E41:L41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O43:V43"/>
-    <mergeCell ref="V44:Y44"/>
+  <mergeCells count="43">
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="AA3:AC9"/>
+    <mergeCell ref="AD3:AD9"/>
+    <mergeCell ref="Q3:Z3"/>
+    <mergeCell ref="L3:N9"/>
+    <mergeCell ref="O3:P9"/>
+    <mergeCell ref="C3:D9"/>
+    <mergeCell ref="E3:F9"/>
+    <mergeCell ref="K3:K9"/>
+    <mergeCell ref="G3:I9"/>
+    <mergeCell ref="J3:J9"/>
+    <mergeCell ref="B22:B32"/>
+    <mergeCell ref="C24:C30"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="I30:K30"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="C34:C44"/>
     <mergeCell ref="S35:U35"/>
@@ -4473,29 +4493,13 @@
     <mergeCell ref="M33:N33"/>
     <mergeCell ref="O37:R37"/>
     <mergeCell ref="V39:Y39"/>
-    <mergeCell ref="B22:B32"/>
-    <mergeCell ref="C24:C30"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C3:D9"/>
-    <mergeCell ref="E3:F9"/>
-    <mergeCell ref="K3:K9"/>
-    <mergeCell ref="G3:I9"/>
-    <mergeCell ref="J3:J9"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="AA3:AC9"/>
-    <mergeCell ref="AD3:AD9"/>
-    <mergeCell ref="Q3:Z3"/>
-    <mergeCell ref="L3:N9"/>
-    <mergeCell ref="O3:P9"/>
+    <mergeCell ref="AC45:AE45"/>
+    <mergeCell ref="E39:Q39"/>
+    <mergeCell ref="R40:V40"/>
+    <mergeCell ref="E41:L41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O43:V43"/>
+    <mergeCell ref="V44:Y44"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/movieJoa 스케줄러.xlsx
+++ b/movieJoa 스케줄러.xlsx
@@ -2350,6 +2350,255 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2391,255 +2640,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2923,8 +2923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AF47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AK15" sqref="AK15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2935,8 +2935,8 @@
     <col min="6" max="6" width="11.875" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="6.25" customWidth="1"/>
-    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="11" max="11" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:30" ht="17.25" thickBot="1"/>
@@ -3031,52 +3031,52 @@
       <c r="B3" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="156" t="s">
+      <c r="C3" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="157"/>
-      <c r="E3" s="162" t="s">
+      <c r="D3" s="121"/>
+      <c r="E3" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="163"/>
-      <c r="G3" s="171" t="s">
+      <c r="F3" s="125"/>
+      <c r="G3" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="171"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="162" t="s">
+      <c r="H3" s="127"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="168" t="s">
+      <c r="K3" s="126" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="186" t="s">
+      <c r="L3" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="186"/>
-      <c r="N3" s="187"/>
-      <c r="O3" s="192" t="s">
+      <c r="M3" s="105"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="189" t="s">
+      <c r="P3" s="106"/>
+      <c r="Q3" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="R3" s="190"/>
-      <c r="S3" s="190"/>
-      <c r="T3" s="190"/>
-      <c r="U3" s="190"/>
-      <c r="V3" s="190"/>
-      <c r="W3" s="190"/>
-      <c r="X3" s="190"/>
-      <c r="Y3" s="190"/>
-      <c r="Z3" s="191"/>
-      <c r="AA3" s="185" t="s">
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="AB3" s="186"/>
-      <c r="AC3" s="187"/>
-      <c r="AD3" s="188" t="s">
+      <c r="AB3" s="105"/>
+      <c r="AC3" s="106"/>
+      <c r="AD3" s="113" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3084,20 +3084,20 @@
       <c r="B4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="158"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="174"/>
-      <c r="J4" s="164"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="165"/>
-      <c r="O4" s="164"/>
-      <c r="P4" s="165"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="109"/>
       <c r="Q4" s="34"/>
       <c r="R4" s="33"/>
       <c r="S4" s="33"/>
@@ -3108,29 +3108,29 @@
       <c r="X4" s="33"/>
       <c r="Y4" s="33"/>
       <c r="Z4" s="33"/>
-      <c r="AA4" s="164"/>
-      <c r="AB4" s="159"/>
-      <c r="AC4" s="165"/>
-      <c r="AD4" s="169"/>
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="108"/>
+      <c r="AC4" s="109"/>
+      <c r="AD4" s="114"/>
     </row>
     <row r="5" spans="2:30" ht="21.6" customHeight="1" thickBot="1">
       <c r="B5" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="158"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="165"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="174"/>
-      <c r="J5" s="164"/>
-      <c r="K5" s="169"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="159"/>
-      <c r="N5" s="165"/>
-      <c r="O5" s="164"/>
-      <c r="P5" s="165"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="109"/>
       <c r="Q5" s="34"/>
       <c r="R5" s="33"/>
       <c r="S5" s="33"/>
@@ -3141,29 +3141,29 @@
       <c r="X5" s="33"/>
       <c r="Y5" s="33"/>
       <c r="Z5" s="33"/>
-      <c r="AA5" s="164"/>
-      <c r="AB5" s="159"/>
-      <c r="AC5" s="165"/>
-      <c r="AD5" s="169"/>
+      <c r="AA5" s="107"/>
+      <c r="AB5" s="108"/>
+      <c r="AC5" s="109"/>
+      <c r="AD5" s="114"/>
     </row>
     <row r="6" spans="2:30" ht="21.6" customHeight="1" thickBot="1">
       <c r="B6" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="158"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="165"/>
-      <c r="G6" s="173"/>
-      <c r="H6" s="173"/>
-      <c r="I6" s="174"/>
-      <c r="J6" s="164"/>
-      <c r="K6" s="169"/>
-      <c r="L6" s="159"/>
-      <c r="M6" s="159"/>
-      <c r="N6" s="165"/>
-      <c r="O6" s="164"/>
-      <c r="P6" s="165"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="109"/>
       <c r="Q6" s="34"/>
       <c r="R6" s="33"/>
       <c r="S6" s="33"/>
@@ -3174,29 +3174,29 @@
       <c r="X6" s="33"/>
       <c r="Y6" s="33"/>
       <c r="Z6" s="33"/>
-      <c r="AA6" s="164"/>
-      <c r="AB6" s="159"/>
-      <c r="AC6" s="165"/>
-      <c r="AD6" s="169"/>
+      <c r="AA6" s="107"/>
+      <c r="AB6" s="108"/>
+      <c r="AC6" s="109"/>
+      <c r="AD6" s="114"/>
     </row>
     <row r="7" spans="2:30" ht="18" thickBot="1">
       <c r="B7" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="164"/>
-      <c r="K7" s="169"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="165"/>
-      <c r="O7" s="164"/>
-      <c r="P7" s="165"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="109"/>
       <c r="Q7" s="34"/>
       <c r="R7" s="33"/>
       <c r="S7" s="33"/>
@@ -3207,29 +3207,29 @@
       <c r="X7" s="33"/>
       <c r="Y7" s="33"/>
       <c r="Z7" s="33"/>
-      <c r="AA7" s="164"/>
-      <c r="AB7" s="159"/>
-      <c r="AC7" s="165"/>
-      <c r="AD7" s="169"/>
+      <c r="AA7" s="107"/>
+      <c r="AB7" s="108"/>
+      <c r="AC7" s="109"/>
+      <c r="AD7" s="114"/>
     </row>
     <row r="8" spans="2:30" ht="18" thickBot="1">
       <c r="B8" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="158"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="173"/>
-      <c r="H8" s="173"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="169"/>
-      <c r="L8" s="159"/>
-      <c r="M8" s="159"/>
-      <c r="N8" s="165"/>
-      <c r="O8" s="164"/>
-      <c r="P8" s="165"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="109"/>
       <c r="Q8" s="34"/>
       <c r="R8" s="33"/>
       <c r="S8" s="33"/>
@@ -3240,29 +3240,29 @@
       <c r="X8" s="33"/>
       <c r="Y8" s="33"/>
       <c r="Z8" s="33"/>
-      <c r="AA8" s="164"/>
-      <c r="AB8" s="159"/>
-      <c r="AC8" s="165"/>
-      <c r="AD8" s="169"/>
+      <c r="AA8" s="107"/>
+      <c r="AB8" s="108"/>
+      <c r="AC8" s="109"/>
+      <c r="AD8" s="114"/>
     </row>
     <row r="9" spans="2:30" ht="18" thickBot="1">
       <c r="B9" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="160"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="166"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="176"/>
-      <c r="J9" s="166"/>
-      <c r="K9" s="170"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
-      <c r="N9" s="167"/>
-      <c r="O9" s="166"/>
-      <c r="P9" s="167"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="112"/>
       <c r="Q9" s="49"/>
       <c r="R9" s="50"/>
       <c r="S9" s="50"/>
@@ -3273,10 +3273,10 @@
       <c r="X9" s="50"/>
       <c r="Y9" s="50"/>
       <c r="Z9" s="50"/>
-      <c r="AA9" s="166"/>
-      <c r="AB9" s="161"/>
-      <c r="AC9" s="167"/>
-      <c r="AD9" s="170"/>
+      <c r="AA9" s="110"/>
+      <c r="AB9" s="111"/>
+      <c r="AC9" s="112"/>
+      <c r="AD9" s="115"/>
     </row>
     <row r="11" spans="2:30">
       <c r="B11" s="16" t="s">
@@ -3472,7 +3472,7 @@
       </c>
     </row>
     <row r="22" spans="2:32" ht="18" customHeight="1" thickBot="1">
-      <c r="B22" s="110" t="s">
+      <c r="B22" s="133" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="53" t="s">
@@ -3481,10 +3481,10 @@
       <c r="D22" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="154" t="s">
+      <c r="E22" s="151" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="155"/>
+      <c r="F22" s="152"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="65"/>
@@ -3513,7 +3513,7 @@
       <c r="AF22" s="11"/>
     </row>
     <row r="23" spans="2:32" ht="18" customHeight="1" thickBot="1">
-      <c r="B23" s="112"/>
+      <c r="B23" s="134"/>
       <c r="C23" s="53" t="s">
         <v>49</v>
       </c>
@@ -3522,10 +3522,10 @@
       </c>
       <c r="E23" s="57"/>
       <c r="F23" s="59"/>
-      <c r="G23" s="138" t="s">
+      <c r="G23" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="H23" s="138"/>
+      <c r="H23" s="135"/>
       <c r="I23" s="66"/>
       <c r="J23" s="67"/>
       <c r="K23" s="68"/>
@@ -3552,8 +3552,8 @@
       <c r="AF23" s="11"/>
     </row>
     <row r="24" spans="2:32" ht="31.9" customHeight="1" thickBot="1">
-      <c r="B24" s="112"/>
-      <c r="C24" s="110" t="s">
+      <c r="B24" s="134"/>
+      <c r="C24" s="133" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="79" t="s">
@@ -3563,11 +3563,11 @@
       <c r="F24" s="11"/>
       <c r="G24" s="12"/>
       <c r="H24" s="60"/>
-      <c r="I24" s="114" t="s">
+      <c r="I24" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="J24" s="115"/>
-      <c r="K24" s="116"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="98"/>
       <c r="L24" s="69"/>
       <c r="M24" s="73"/>
       <c r="N24" s="11"/>
@@ -3591,8 +3591,8 @@
       <c r="AF24" s="11"/>
     </row>
     <row r="25" spans="2:32" ht="33" customHeight="1" thickBot="1">
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="134"/>
       <c r="D25" s="80" t="s">
         <v>75</v>
       </c>
@@ -3600,11 +3600,11 @@
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
       <c r="H25" s="61"/>
-      <c r="I25" s="139" t="s">
+      <c r="I25" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="J25" s="140"/>
-      <c r="K25" s="141"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="138"/>
       <c r="L25" s="31"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
@@ -3628,8 +3628,8 @@
       <c r="AF25" s="11"/>
     </row>
     <row r="26" spans="2:32" ht="31.9" customHeight="1" thickBot="1">
-      <c r="B26" s="112"/>
-      <c r="C26" s="112"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="134"/>
       <c r="D26" s="81" t="s">
         <v>77</v>
       </c>
@@ -3637,11 +3637,11 @@
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
       <c r="H26" s="62"/>
-      <c r="I26" s="142" t="s">
+      <c r="I26" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="J26" s="143"/>
-      <c r="K26" s="144"/>
+      <c r="J26" s="140"/>
+      <c r="K26" s="141"/>
       <c r="L26" s="70"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
@@ -3665,8 +3665,8 @@
       <c r="AF26" s="11"/>
     </row>
     <row r="27" spans="2:32" ht="22.9" customHeight="1" thickBot="1">
-      <c r="B27" s="112"/>
-      <c r="C27" s="112"/>
+      <c r="B27" s="134"/>
+      <c r="C27" s="134"/>
       <c r="D27" s="81" t="s">
         <v>76</v>
       </c>
@@ -3674,11 +3674,11 @@
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
       <c r="H27" s="72"/>
-      <c r="I27" s="145" t="s">
+      <c r="I27" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="J27" s="146"/>
-      <c r="K27" s="147"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="144"/>
       <c r="L27" s="71"/>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
@@ -3702,8 +3702,8 @@
       <c r="AF27" s="11"/>
     </row>
     <row r="28" spans="2:32" ht="22.9" customHeight="1" thickBot="1">
-      <c r="B28" s="112"/>
-      <c r="C28" s="112"/>
+      <c r="B28" s="134"/>
+      <c r="C28" s="134"/>
       <c r="D28" s="81" t="s">
         <v>73</v>
       </c>
@@ -3711,11 +3711,11 @@
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
       <c r="H28" s="62"/>
-      <c r="I28" s="148" t="s">
+      <c r="I28" s="145" t="s">
         <v>67</v>
       </c>
-      <c r="J28" s="149"/>
-      <c r="K28" s="150"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="147"/>
       <c r="L28" s="69"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
@@ -3739,8 +3739,8 @@
       <c r="AF28" s="11"/>
     </row>
     <row r="29" spans="2:32" ht="22.9" customHeight="1" thickBot="1">
-      <c r="B29" s="112"/>
-      <c r="C29" s="112"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="134"/>
       <c r="D29" s="80" t="s">
         <v>72</v>
       </c>
@@ -3748,11 +3748,11 @@
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
       <c r="H29" s="62"/>
-      <c r="I29" s="151" t="s">
+      <c r="I29" s="148" t="s">
         <v>67</v>
       </c>
-      <c r="J29" s="152"/>
-      <c r="K29" s="153"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="150"/>
       <c r="L29" s="69"/>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
@@ -3776,8 +3776,8 @@
       <c r="AF29" s="11"/>
     </row>
     <row r="30" spans="2:32" ht="21.6" customHeight="1" thickBot="1">
-      <c r="B30" s="112"/>
-      <c r="C30" s="112"/>
+      <c r="B30" s="134"/>
+      <c r="C30" s="134"/>
       <c r="D30" s="81" t="s">
         <v>74</v>
       </c>
@@ -3785,11 +3785,11 @@
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
       <c r="H30" s="62"/>
-      <c r="I30" s="177" t="s">
+      <c r="I30" s="153" t="s">
         <v>67</v>
       </c>
-      <c r="J30" s="178"/>
-      <c r="K30" s="179"/>
+      <c r="J30" s="154"/>
+      <c r="K30" s="155"/>
       <c r="L30" s="69"/>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
@@ -3813,7 +3813,7 @@
       <c r="AF30" s="11"/>
     </row>
     <row r="31" spans="2:32" ht="17.25" thickBot="1">
-      <c r="B31" s="112"/>
+      <c r="B31" s="134"/>
       <c r="C31" s="53" t="s">
         <v>35</v>
       </c>
@@ -3829,11 +3829,11 @@
       <c r="K31" s="11"/>
       <c r="L31" s="58"/>
       <c r="M31" s="11"/>
-      <c r="N31" s="180" t="s">
+      <c r="N31" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="O31" s="181"/>
-      <c r="P31" s="182"/>
+      <c r="O31" s="100"/>
+      <c r="P31" s="101"/>
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
@@ -3852,7 +3852,7 @@
       <c r="AF31" s="11"/>
     </row>
     <row r="32" spans="2:32" ht="18" customHeight="1" thickBot="1">
-      <c r="B32" s="112"/>
+      <c r="B32" s="134"/>
       <c r="C32" s="53" t="s">
         <v>53</v>
       </c>
@@ -3871,10 +3871,10 @@
       <c r="N32" s="75"/>
       <c r="O32" s="76"/>
       <c r="P32" s="77"/>
-      <c r="Q32" s="183" t="s">
+      <c r="Q32" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="R32" s="184"/>
+      <c r="R32" s="103"/>
       <c r="S32" s="63"/>
       <c r="T32" s="63"/>
       <c r="U32" s="63"/>
@@ -3891,7 +3891,7 @@
       <c r="AF32" s="63"/>
     </row>
     <row r="33" spans="2:32" ht="31.15" customHeight="1" thickBot="1">
-      <c r="B33" s="110" t="s">
+      <c r="B33" s="133" t="s">
         <v>36</v>
       </c>
       <c r="C33" s="53" t="s">
@@ -3910,8 +3910,8 @@
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
-      <c r="M33" s="130"/>
-      <c r="N33" s="131"/>
+      <c r="M33" s="171"/>
+      <c r="N33" s="172"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
@@ -3932,32 +3932,32 @@
       <c r="AF33" s="11"/>
     </row>
     <row r="34" spans="2:32" ht="18" customHeight="1" thickBot="1">
-      <c r="B34" s="112"/>
-      <c r="C34" s="110" t="s">
+      <c r="B34" s="134"/>
+      <c r="C34" s="133" t="s">
         <v>85</v>
       </c>
       <c r="D34" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="117" t="s">
+      <c r="E34" s="158" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="118"/>
-      <c r="G34" s="118"/>
-      <c r="H34" s="118"/>
-      <c r="I34" s="118"/>
-      <c r="J34" s="118"/>
-      <c r="K34" s="118"/>
-      <c r="L34" s="118"/>
-      <c r="M34" s="118"/>
-      <c r="N34" s="118"/>
-      <c r="O34" s="118"/>
-      <c r="P34" s="118"/>
-      <c r="Q34" s="118"/>
-      <c r="R34" s="118"/>
-      <c r="S34" s="118"/>
-      <c r="T34" s="118"/>
-      <c r="U34" s="119"/>
+      <c r="F34" s="159"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="159"/>
+      <c r="I34" s="159"/>
+      <c r="J34" s="159"/>
+      <c r="K34" s="159"/>
+      <c r="L34" s="159"/>
+      <c r="M34" s="159"/>
+      <c r="N34" s="159"/>
+      <c r="O34" s="159"/>
+      <c r="P34" s="159"/>
+      <c r="Q34" s="159"/>
+      <c r="R34" s="159"/>
+      <c r="S34" s="159"/>
+      <c r="T34" s="159"/>
+      <c r="U34" s="160"/>
       <c r="V34" s="11"/>
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
@@ -3971,30 +3971,30 @@
       <c r="AF34" s="11"/>
     </row>
     <row r="35" spans="2:32" ht="14.45" customHeight="1" thickBot="1">
-      <c r="B35" s="112"/>
-      <c r="C35" s="112"/>
+      <c r="B35" s="134"/>
+      <c r="C35" s="134"/>
       <c r="D35" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="123" t="s">
+      <c r="E35" s="164" t="s">
         <v>90</v>
       </c>
-      <c r="F35" s="124"/>
-      <c r="G35" s="124"/>
-      <c r="H35" s="124"/>
-      <c r="I35" s="124"/>
-      <c r="J35" s="124"/>
-      <c r="K35" s="124"/>
-      <c r="L35" s="124"/>
-      <c r="M35" s="124"/>
-      <c r="N35" s="124"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="165"/>
+      <c r="I35" s="165"/>
+      <c r="J35" s="165"/>
+      <c r="K35" s="165"/>
+      <c r="L35" s="165"/>
+      <c r="M35" s="165"/>
+      <c r="N35" s="165"/>
       <c r="O35" s="89"/>
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
       <c r="R35" s="87"/>
-      <c r="S35" s="114"/>
-      <c r="T35" s="115"/>
-      <c r="U35" s="116"/>
+      <c r="S35" s="96"/>
+      <c r="T35" s="97"/>
+      <c r="U35" s="98"/>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
       <c r="X35" s="11"/>
@@ -4008,8 +4008,8 @@
       <c r="AF35" s="11"/>
     </row>
     <row r="36" spans="2:32" ht="18" customHeight="1" thickBot="1">
-      <c r="B36" s="112"/>
-      <c r="C36" s="112"/>
+      <c r="B36" s="134"/>
+      <c r="C36" s="134"/>
       <c r="D36" s="85" t="s">
         <v>88</v>
       </c>
@@ -4023,16 +4023,16 @@
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
       <c r="N36" s="88"/>
-      <c r="O36" s="120" t="s">
+      <c r="O36" s="161" t="s">
         <v>89</v>
       </c>
-      <c r="P36" s="121"/>
-      <c r="Q36" s="121"/>
-      <c r="R36" s="121"/>
-      <c r="S36" s="121"/>
-      <c r="T36" s="121"/>
-      <c r="U36" s="121"/>
-      <c r="V36" s="122"/>
+      <c r="P36" s="162"/>
+      <c r="Q36" s="162"/>
+      <c r="R36" s="162"/>
+      <c r="S36" s="162"/>
+      <c r="T36" s="162"/>
+      <c r="U36" s="162"/>
+      <c r="V36" s="163"/>
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
@@ -4045,27 +4045,27 @@
       <c r="AF36" s="11"/>
     </row>
     <row r="37" spans="2:32" ht="17.25" thickBot="1">
-      <c r="B37" s="112"/>
-      <c r="C37" s="112"/>
+      <c r="B37" s="134"/>
+      <c r="C37" s="134"/>
       <c r="D37" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="125" t="s">
+      <c r="E37" s="166" t="s">
         <v>92</v>
       </c>
-      <c r="F37" s="126"/>
-      <c r="G37" s="126"/>
-      <c r="H37" s="126"/>
-      <c r="I37" s="126"/>
-      <c r="J37" s="126"/>
-      <c r="K37" s="126"/>
-      <c r="L37" s="126"/>
-      <c r="M37" s="127"/>
+      <c r="F37" s="167"/>
+      <c r="G37" s="167"/>
+      <c r="H37" s="167"/>
+      <c r="I37" s="167"/>
+      <c r="J37" s="167"/>
+      <c r="K37" s="167"/>
+      <c r="L37" s="167"/>
+      <c r="M37" s="168"/>
       <c r="N37" s="12"/>
-      <c r="O37" s="132"/>
-      <c r="P37" s="133"/>
-      <c r="Q37" s="133"/>
-      <c r="R37" s="134"/>
+      <c r="O37" s="173"/>
+      <c r="P37" s="174"/>
+      <c r="Q37" s="174"/>
+      <c r="R37" s="175"/>
       <c r="S37" s="11"/>
       <c r="T37" s="11"/>
       <c r="U37" s="11"/>
@@ -4082,8 +4082,8 @@
       <c r="AF37" s="11"/>
     </row>
     <row r="38" spans="2:32" ht="20.45" customHeight="1" thickBot="1">
-      <c r="B38" s="112"/>
-      <c r="C38" s="112"/>
+      <c r="B38" s="134"/>
+      <c r="C38" s="134"/>
       <c r="D38" s="84" t="s">
         <v>91</v>
       </c>
@@ -4096,17 +4096,17 @@
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="128" t="s">
+      <c r="N38" s="169" t="s">
         <v>93</v>
       </c>
-      <c r="O38" s="129"/>
-      <c r="P38" s="129"/>
-      <c r="Q38" s="129"/>
-      <c r="R38" s="129"/>
-      <c r="S38" s="129"/>
-      <c r="T38" s="129"/>
-      <c r="U38" s="129"/>
-      <c r="V38" s="129"/>
+      <c r="O38" s="170"/>
+      <c r="P38" s="170"/>
+      <c r="Q38" s="170"/>
+      <c r="R38" s="170"/>
+      <c r="S38" s="170"/>
+      <c r="T38" s="170"/>
+      <c r="U38" s="170"/>
+      <c r="V38" s="170"/>
       <c r="W38" s="91"/>
       <c r="X38" s="91"/>
       <c r="Y38" s="92"/>
@@ -4119,34 +4119,34 @@
       <c r="AF38" s="11"/>
     </row>
     <row r="39" spans="2:32" ht="17.25" thickBot="1">
-      <c r="B39" s="112"/>
-      <c r="C39" s="112"/>
+      <c r="B39" s="134"/>
+      <c r="C39" s="134"/>
       <c r="D39" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="E39" s="99" t="s">
+      <c r="E39" s="182" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="100"/>
-      <c r="G39" s="100"/>
-      <c r="H39" s="100"/>
-      <c r="I39" s="100"/>
-      <c r="J39" s="100"/>
-      <c r="K39" s="100"/>
-      <c r="L39" s="100"/>
-      <c r="M39" s="100"/>
-      <c r="N39" s="100"/>
-      <c r="O39" s="100"/>
-      <c r="P39" s="100"/>
-      <c r="Q39" s="101"/>
+      <c r="F39" s="183"/>
+      <c r="G39" s="183"/>
+      <c r="H39" s="183"/>
+      <c r="I39" s="183"/>
+      <c r="J39" s="183"/>
+      <c r="K39" s="183"/>
+      <c r="L39" s="183"/>
+      <c r="M39" s="183"/>
+      <c r="N39" s="183"/>
+      <c r="O39" s="183"/>
+      <c r="P39" s="183"/>
+      <c r="Q39" s="184"/>
       <c r="R39" s="11"/>
       <c r="S39" s="11"/>
       <c r="T39" s="11"/>
       <c r="U39" s="12"/>
-      <c r="V39" s="135"/>
-      <c r="W39" s="136"/>
-      <c r="X39" s="136"/>
-      <c r="Y39" s="137"/>
+      <c r="V39" s="176"/>
+      <c r="W39" s="177"/>
+      <c r="X39" s="177"/>
+      <c r="Y39" s="178"/>
       <c r="Z39" s="10"/>
       <c r="AA39" s="11"/>
       <c r="AB39" s="11"/>
@@ -4156,8 +4156,8 @@
       <c r="AF39" s="11"/>
     </row>
     <row r="40" spans="2:32" ht="17.25" thickBot="1">
-      <c r="B40" s="112"/>
-      <c r="C40" s="112"/>
+      <c r="B40" s="134"/>
+      <c r="C40" s="134"/>
       <c r="D40" s="85" t="s">
         <v>99</v>
       </c>
@@ -4174,13 +4174,13 @@
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
-      <c r="R40" s="102" t="s">
+      <c r="R40" s="185" t="s">
         <v>98</v>
       </c>
-      <c r="S40" s="100"/>
-      <c r="T40" s="100"/>
-      <c r="U40" s="100"/>
-      <c r="V40" s="101"/>
+      <c r="S40" s="183"/>
+      <c r="T40" s="183"/>
+      <c r="U40" s="183"/>
+      <c r="V40" s="184"/>
       <c r="W40" s="11"/>
       <c r="X40" s="11"/>
       <c r="Y40" s="11"/>
@@ -4193,21 +4193,21 @@
       <c r="AF40" s="11"/>
     </row>
     <row r="41" spans="2:32" ht="17.25" thickBot="1">
-      <c r="B41" s="112"/>
-      <c r="C41" s="112"/>
+      <c r="B41" s="134"/>
+      <c r="C41" s="134"/>
       <c r="D41" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="E41" s="103" t="s">
+      <c r="E41" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="104"/>
-      <c r="J41" s="104"/>
-      <c r="K41" s="104"/>
-      <c r="L41" s="105"/>
+      <c r="F41" s="187"/>
+      <c r="G41" s="187"/>
+      <c r="H41" s="187"/>
+      <c r="I41" s="187"/>
+      <c r="J41" s="187"/>
+      <c r="K41" s="187"/>
+      <c r="L41" s="188"/>
       <c r="M41" s="11"/>
       <c r="N41" s="12"/>
       <c r="O41" s="11"/>
@@ -4230,8 +4230,8 @@
       <c r="AF41" s="11"/>
     </row>
     <row r="42" spans="2:32" ht="17.25" thickBot="1">
-      <c r="B42" s="112"/>
-      <c r="C42" s="112"/>
+      <c r="B42" s="134"/>
+      <c r="C42" s="134"/>
       <c r="D42" s="85" t="s">
         <v>103</v>
       </c>
@@ -4243,10 +4243,10 @@
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
-      <c r="M42" s="106" t="s">
+      <c r="M42" s="189" t="s">
         <v>105</v>
       </c>
-      <c r="N42" s="105"/>
+      <c r="N42" s="188"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="12"/>
@@ -4267,8 +4267,8 @@
       <c r="AF42" s="11"/>
     </row>
     <row r="43" spans="2:32" ht="17.25" thickBot="1">
-      <c r="B43" s="112"/>
-      <c r="C43" s="112"/>
+      <c r="B43" s="134"/>
+      <c r="C43" s="134"/>
       <c r="D43" s="85" t="s">
         <v>104</v>
       </c>
@@ -4282,16 +4282,16 @@
       <c r="L43" s="11"/>
       <c r="M43" s="11"/>
       <c r="N43" s="11"/>
-      <c r="O43" s="106" t="s">
+      <c r="O43" s="189" t="s">
         <v>106</v>
       </c>
-      <c r="P43" s="104"/>
-      <c r="Q43" s="104"/>
-      <c r="R43" s="104"/>
-      <c r="S43" s="104"/>
-      <c r="T43" s="104"/>
-      <c r="U43" s="104"/>
-      <c r="V43" s="105"/>
+      <c r="P43" s="187"/>
+      <c r="Q43" s="187"/>
+      <c r="R43" s="187"/>
+      <c r="S43" s="187"/>
+      <c r="T43" s="187"/>
+      <c r="U43" s="187"/>
+      <c r="V43" s="188"/>
       <c r="W43" s="10"/>
       <c r="X43" s="10"/>
       <c r="Y43" s="11"/>
@@ -4304,8 +4304,8 @@
       <c r="AF43" s="11"/>
     </row>
     <row r="44" spans="2:32" ht="17.25" thickBot="1">
-      <c r="B44" s="112"/>
-      <c r="C44" s="113"/>
+      <c r="B44" s="134"/>
+      <c r="C44" s="157"/>
       <c r="D44" s="78"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
@@ -4324,10 +4324,10 @@
       <c r="S44" s="12"/>
       <c r="T44" s="12"/>
       <c r="U44" s="12"/>
-      <c r="V44" s="107"/>
-      <c r="W44" s="108"/>
-      <c r="X44" s="108"/>
-      <c r="Y44" s="109"/>
+      <c r="V44" s="190"/>
+      <c r="W44" s="191"/>
+      <c r="X44" s="191"/>
+      <c r="Y44" s="192"/>
       <c r="Z44" s="11"/>
       <c r="AA44" s="11"/>
       <c r="AB44" s="11"/>
@@ -4337,7 +4337,7 @@
       <c r="AF44" s="11"/>
     </row>
     <row r="45" spans="2:32" ht="18" customHeight="1" thickBot="1">
-      <c r="B45" s="113"/>
+      <c r="B45" s="157"/>
       <c r="C45" s="53" t="s">
         <v>83</v>
       </c>
@@ -4368,15 +4368,15 @@
       <c r="Z45" s="94"/>
       <c r="AA45" s="94"/>
       <c r="AB45" s="95"/>
-      <c r="AC45" s="96" t="s">
+      <c r="AC45" s="179" t="s">
         <v>94</v>
       </c>
-      <c r="AD45" s="97"/>
-      <c r="AE45" s="98"/>
+      <c r="AD45" s="180"/>
+      <c r="AE45" s="181"/>
       <c r="AF45" s="1"/>
     </row>
     <row r="46" spans="2:32" ht="17.25" thickBot="1">
-      <c r="B46" s="110" t="s">
+      <c r="B46" s="133" t="s">
         <v>38</v>
       </c>
       <c r="C46" s="53" t="s">
@@ -4409,15 +4409,15 @@
       <c r="Z46" s="12"/>
       <c r="AA46" s="12"/>
       <c r="AB46" s="12"/>
-      <c r="AC46" s="114" t="s">
+      <c r="AC46" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="AD46" s="115"/>
-      <c r="AE46" s="116"/>
+      <c r="AD46" s="97"/>
+      <c r="AE46" s="98"/>
       <c r="AF46" s="27"/>
     </row>
     <row r="47" spans="2:32" ht="17.25" thickBot="1">
-      <c r="B47" s="111"/>
+      <c r="B47" s="156"/>
       <c r="C47" s="55" t="s">
         <v>41</v>
       </c>
@@ -4457,30 +4457,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="AA3:AC9"/>
-    <mergeCell ref="AD3:AD9"/>
-    <mergeCell ref="Q3:Z3"/>
-    <mergeCell ref="L3:N9"/>
-    <mergeCell ref="O3:P9"/>
-    <mergeCell ref="C3:D9"/>
-    <mergeCell ref="E3:F9"/>
-    <mergeCell ref="K3:K9"/>
-    <mergeCell ref="G3:I9"/>
-    <mergeCell ref="J3:J9"/>
-    <mergeCell ref="B22:B32"/>
-    <mergeCell ref="C24:C30"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="I30:K30"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="C34:C44"/>
     <mergeCell ref="S35:U35"/>
@@ -4493,11 +4469,35 @@
     <mergeCell ref="M33:N33"/>
     <mergeCell ref="O37:R37"/>
     <mergeCell ref="V39:Y39"/>
-    <mergeCell ref="AC45:AE45"/>
     <mergeCell ref="E39:Q39"/>
     <mergeCell ref="R40:V40"/>
     <mergeCell ref="E41:L41"/>
     <mergeCell ref="M42:N42"/>
+    <mergeCell ref="B22:B32"/>
+    <mergeCell ref="C24:C30"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="C3:D9"/>
+    <mergeCell ref="E3:F9"/>
+    <mergeCell ref="K3:K9"/>
+    <mergeCell ref="G3:I9"/>
+    <mergeCell ref="J3:J9"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="AA3:AC9"/>
+    <mergeCell ref="AD3:AD9"/>
+    <mergeCell ref="Q3:Z3"/>
+    <mergeCell ref="L3:N9"/>
+    <mergeCell ref="O3:P9"/>
+    <mergeCell ref="AC45:AE45"/>
     <mergeCell ref="O43:V43"/>
     <mergeCell ref="V44:Y44"/>
   </mergeCells>
